--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cntn1-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cntn1-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Cntn1</t>
   </si>
   <si>
     <t>Ptprz1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -522,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,40 +537,40 @@
         <v>0.210947</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3500709860127268</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.446885632088942</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.006601</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N2">
-        <v>0.019803</v>
+        <v>0.049159</v>
       </c>
       <c r="O2">
-        <v>0.0009255397585646605</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P2">
-        <v>0.001383055057785483</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q2">
-        <v>0.0004641537156666667</v>
+        <v>0.001152215952555556</v>
       </c>
       <c r="R2">
-        <v>0.004177383441</v>
+        <v>0.010369943573</v>
       </c>
       <c r="S2">
-        <v>0.0009255397585646605</v>
+        <v>0.007656654871773377</v>
       </c>
       <c r="T2">
-        <v>0.001383055057785483</v>
+        <v>0.01450263784937866</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,134 +599,134 @@
         <v>0.210947</v>
       </c>
       <c r="I3">
+        <v>0.3500709860127268</v>
+      </c>
+      <c r="J3">
+        <v>0.446885632088942</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M3">
-        <v>0.01638633333333333</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N3">
-        <v>0.049159</v>
+        <v>1.465631</v>
       </c>
       <c r="O3">
-        <v>0.00229756142964602</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P3">
-        <v>0.003433298166221107</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q3">
-        <v>0.001152215952555556</v>
+        <v>0.05152841042616667</v>
       </c>
       <c r="R3">
-        <v>0.010369943573</v>
+        <v>0.309170462557</v>
       </c>
       <c r="S3">
-        <v>0.00229756142964602</v>
+        <v>0.3424143311409535</v>
       </c>
       <c r="T3">
-        <v>0.003433298166221107</v>
+        <v>0.4323829942395634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.1305455</v>
+      </c>
+      <c r="H4">
+        <v>0.261091</v>
+      </c>
+      <c r="I4">
+        <v>0.6499290139872732</v>
+      </c>
+      <c r="J4">
+        <v>0.5531143679110581</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.07031566666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.210947</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.03120566666666666</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N4">
-        <v>0.09361699999999999</v>
+        <v>0.049159</v>
       </c>
       <c r="O4">
-        <v>0.004375410573021653</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P4">
-        <v>0.006538275278730676</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q4">
-        <v>0.002194247255444444</v>
+        <v>0.002139162078166667</v>
       </c>
       <c r="R4">
-        <v>0.019748225299</v>
+        <v>0.012834972469</v>
       </c>
       <c r="S4">
-        <v>0.004375410573021653</v>
+        <v>0.01421506594400145</v>
       </c>
       <c r="T4">
-        <v>0.006538275278730676</v>
+        <v>0.0179500453608353</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07031566666666667</v>
+        <v>0.1305455</v>
       </c>
       <c r="H5">
-        <v>0.210947</v>
+        <v>0.261091</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6499290139872732</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5531143679110581</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.0778615</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N5">
-        <v>14.155723</v>
+        <v>1.465631</v>
       </c>
       <c r="O5">
-        <v>0.9924014882387677</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P5">
-        <v>0.9886453714972628</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q5">
-        <v>0.4976845499468333</v>
+        <v>0.09566576585525001</v>
       </c>
       <c r="R5">
-        <v>2.986107299681</v>
+        <v>0.382663063421</v>
       </c>
       <c r="S5">
-        <v>0.9924014882387677</v>
+        <v>0.6357139480432719</v>
       </c>
       <c r="T5">
-        <v>0.9886453714972628</v>
+        <v>0.5351643225502228</v>
       </c>
     </row>
   </sheetData>
